--- a/biology/Botanique/Talbotiella_velutina/Talbotiella_velutina.xlsx
+++ b/biology/Botanique/Talbotiella_velutina/Talbotiella_velutina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talbotiella velutina Burgt &amp; Wieringa est une espèce de plantes de la famille des Fabacées et du genre Talbotiella, endémique du Cameroun[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talbotiella velutina Burgt &amp; Wieringa est une espèce de plantes de la famille des Fabacées et du genre Talbotiella, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talbotiella velutina est un arbre d'environ 35 m de haut et de maximum 76 cm de diamètre. Les arbres poussent en groupe, éloignés les uns des autres de 50 cm environ. Les fruits et les fleurs de ces arbres ne peuvent être cueillis qu'avec du matériel d'alpinisme, ce qui est très dangereux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talbotiella velutina est un arbre d'environ 35 m de haut et de maximum 76 cm de diamètre. Les arbres poussent en groupe, éloignés les uns des autres de 50 cm environ. Les fruits et les fleurs de ces arbres ne peuvent être cueillis qu'avec du matériel d'alpinisme, ce qui est très dangereux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre se trouve dans les forêts pluviales sur un sol sablonneux dans le parc national de Korup et la forêt du village de Besingi (Région du Sud-Ouest[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre se trouve dans les forêts pluviales sur un sol sablonneux dans le parc national de Korup et la forêt du village de Besingi (Région du Sud-Ouest).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talbotiella velutina est une espèce classée en danger critique d'extinction[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talbotiella velutina est une espèce classée en danger critique d'extinction.
 </t>
         </is>
       </c>
